--- a/backend/listapmpf.xlsx
+++ b/backend/listapmpf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf\OneDrive\Área de Trabalho\Raul\Compras e estoque\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71FD026-F81D-4F72-B8D1-218F4E7E94C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCB738C0-D0A1-4EB4-9CD5-0C3580B97845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{541833F4-0B94-4512-BEAE-022B2F9A4213}"/>
   </bookViews>
@@ -21,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>GTIN</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO</t>
-  </si>
   <si>
     <t>PMPF</t>
   </si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>POMADA MINANCORA 0,005g+0,2g+0,05g cx c/ pt x 30g pom derm</t>
+  </si>
+  <si>
+    <t>EAN</t>
+  </si>
+  <si>
+    <t>Descrição</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
   <dimension ref="A1:C11067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD11664"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,13 +927,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
         <v>78905023</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>27.82</v>
@@ -952,7 +952,7 @@
         <v>78905047</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>27.82</v>
@@ -963,7 +963,7 @@
         <v>78950047</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>27.82</v>
@@ -974,7 +974,7 @@
         <v>7895858015671</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>27.82</v>
@@ -985,7 +985,7 @@
         <v>7895858015695</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>27.82</v>
@@ -996,7 +996,7 @@
         <v>78905030</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>18.25</v>
@@ -1007,7 +1007,7 @@
         <v>78950016</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>18.25</v>
@@ -1018,7 +1018,7 @@
         <v>78950023</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>18.25</v>
@@ -1029,7 +1029,7 @@
         <v>7895858015664</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>18.25</v>
@@ -1040,7 +1040,7 @@
         <v>78905108</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>17.12</v>
@@ -1051,7 +1051,7 @@
         <v>7897004644568</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>17.12</v>

--- a/backend/listapmpf.xlsx
+++ b/backend/listapmpf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf\OneDrive\Área de Trabalho\Raul\Compras e estoque\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCB738C0-D0A1-4EB4-9CD5-0C3580B97845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC8A5A86-D3AD-4F41-BBC4-F33AC0642360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{541833F4-0B94-4512-BEAE-022B2F9A4213}"/>
   </bookViews>
@@ -40,10 +40,10 @@
     <t>POMADA MINANCORA 0,005g+0,2g+0,05g cx c/ pt x 30g pom derm</t>
   </si>
   <si>
-    <t>EAN</t>
+    <t>Descrição</t>
   </si>
   <si>
-    <t>Descrição</t>
+    <t xml:space="preserve"> Código EAN</t>
   </si>
 </sst>
 </file>
@@ -914,9 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E47D69-6FA1-42BA-9883-F518C6B40DBC}">
   <dimension ref="A1:C11067"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -927,10 +925,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>

--- a/backend/listapmpf.xlsx
+++ b/backend/listapmpf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf\OneDrive\Área de Trabalho\Raul\Compras e estoque\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC8A5A86-D3AD-4F41-BBC4-F33AC0642360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{233D1EB3-9855-4841-9FEA-344EC7289903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{541833F4-0B94-4512-BEAE-022B2F9A4213}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve"> Código EAN</t>
+    <t xml:space="preserve"> Codigo EAN</t>
   </si>
 </sst>
 </file>

--- a/backend/listapmpf.xlsx
+++ b/backend/listapmpf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf\OneDrive\Área de Trabalho\Raul\Compras e estoque\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{233D1EB3-9855-4841-9FEA-344EC7289903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD99CE-151C-4EBB-AE9B-0BA0344791A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{541833F4-0B94-4512-BEAE-022B2F9A4213}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve"> Codigo EAN</t>
+    <t>EAN</t>
   </si>
 </sst>
 </file>
@@ -52,7 +52,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -535,7 +535,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -914,7 +914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E47D69-6FA1-42BA-9883-F518C6B40DBC}">
   <dimension ref="A1:C11067"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/backend/listapmpf.xlsx
+++ b/backend/listapmpf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf\OneDrive\Área de Trabalho\Raul\Compras e estoque\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD99CE-151C-4EBB-AE9B-0BA0344791A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A554FF63-9E83-4B51-91E0-BF7C3E34BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{541833F4-0B94-4512-BEAE-022B2F9A4213}"/>
   </bookViews>
@@ -915,7 +915,7 @@
   <dimension ref="A1:C11067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>78905023</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>78905047</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>78950047</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>7895858015671</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>

--- a/backend/listapmpf.xlsx
+++ b/backend/listapmpf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf\OneDrive\Área de Trabalho\Raul\Compras e estoque\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A554FF63-9E83-4B51-91E0-BF7C3E34BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE67FD9-B8EE-44A8-85A7-34B60FEFE657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{541833F4-0B94-4512-BEAE-022B2F9A4213}"/>
   </bookViews>
@@ -50,9 +50,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -532,10 +531,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -915,7 +917,7 @@
   <dimension ref="A1:C11067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +928,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
